--- a/ProjectExecution/Sprint001-2020062920200711/SprintBacklog001.xlsx
+++ b/ProjectExecution/Sprint001-2020062920200711/SprintBacklog001.xlsx
@@ -11,14 +11,55 @@
     <sheet name="SprintBacklog" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SprintBacklog!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SprintBacklog!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sydney</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Help:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">XS         :    1 Story Point       :     0 to 2 person hours
+S           :   2 Story Points      :     2 to 4 person hours
+M          :   3 Story Points      :     4 to 8 person hours
+L           :   5 Story Points      :     1 to 1.5 person days
+XL         :   8 Story Points      :     1.5 to 2.5 person days
+XXL       :   13 Story Points    :     0.5 to 1 person weeks
+XXXL     :   21 Story Points    :     Larger and never used
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Anodiam</t>
   </si>
@@ -50,20 +91,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Initial</t>
-  </si>
-  <si>
     <t>Sprint Backlog</t>
   </si>
   <si>
     <t>Sprint001-2020062920200711</t>
-  </si>
-  <si>
-    <t>Task #
-(Sprint# + Item# + Task#)</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Estimates
@@ -71,13 +102,50 @@
   </si>
   <si>
     <t>Impediments</t>
+  </si>
+  <si>
+    <t>Task #
+(Item# + Task#)</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Create CRUD functionality in a Data Access Layer using JPA and MySQL inside a developer machine</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Create CRUD functionality in a REST API web service  inside the developer machine using the above Data Access layer from Task # 1001</t>
+  </si>
+  <si>
+    <t>Test the above task # 1001 using Junit</t>
+  </si>
+  <si>
+    <t>Test the above task # 1003 using Postman Tool</t>
+  </si>
+  <si>
+    <t>Containerize the .jar file from above task # 1003 into a docker container and check it into docker hub</t>
+  </si>
+  <si>
+    <t>Deploy the Docker container from above task # 1005 on a Kubernetes Cluster in GCP</t>
+  </si>
+  <si>
+    <t>Test the above task # 1006 using Postman Tool</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Deploy the SEED APP and a basic MySQL database on one Kubernetes cluster on GCP. This will be a REST API web service capable of doing a complete crud operation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -88,22 +156,26 @@
       <sz val="48"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -130,6 +202,25 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -189,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -217,6 +308,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,6 +320,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,31 +558,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -548,309 +652,324 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25">
+    <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51">
+      <c r="A2" s="20">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="9">
-        <v>1001001</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="9">
-        <v>1001002</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="9">
-        <v>1001003</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="9">
-        <v>1001004</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="9">
-        <v>1001005</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="9">
-        <v>1002001</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="9">
-        <v>1002002</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="9">
-        <v>1002003</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="9">
-        <v>1002004</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="9">
-        <v>1002005</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="9">
-        <v>1003001</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="9">
-        <v>1003002</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="9">
-        <v>1003003</v>
-      </c>
+      <c r="D2" s="20">
+        <v>5</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1">
+      <c r="A3" s="20">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="38.25">
+      <c r="A4" s="20">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20">
+        <v>5</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1">
+      <c r="A5" s="20">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="20">
+        <v>3</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="38.25">
+      <c r="A6" s="20">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="20">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="25.5">
+      <c r="A7" s="20">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="20">
+        <v>8</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="9">
-        <v>1003004</v>
-      </c>
+      <c r="F14" s="9"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="9">
-        <v>1003005</v>
-      </c>
+      <c r="F15" s="9"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="9">
-        <v>1004001</v>
-      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="9">
-        <v>1004002</v>
-      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="9">
-        <v>1004003</v>
-      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="9">
-        <v>1004004</v>
-      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="9">
-        <v>1004005</v>
-      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="9">
-        <v>1005001</v>
-      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="9">
-        <v>1005002</v>
-      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="9">
-        <v>1005003</v>
-      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E24"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Status should be chosen from the dropdown only!!!" sqref="D2:D24">
+  <autoFilter ref="A1:F26">
+    <filterColumn colId="1"/>
+  </autoFilter>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Status Error!" error="Status should be chosen from the dropdown only!!!" sqref="E2:E26">
       <formula1>"Initial,Scheduled,WIP,Done"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number" error="Enter an Integer signifying a sprint number" sqref="E2:E24">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sprint Number" error="Enter an Integer signifying a sprint number" sqref="F2:F26">
       <formula1>1</formula1>
       <formula2>999</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Estimates for Task!!!" error="Please select a Fibonacci value from the dropdown!" sqref="D2:D8">
+      <formula1>"1,2,3,5,8,13"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ProjectExecution/Sprint001-2020062920200711/SprintBacklog001.xlsx
+++ b/ProjectExecution/Sprint001-2020062920200711/SprintBacklog001.xlsx
@@ -309,6 +309,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -320,18 +332,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,31 +558,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -656,7 +656,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -690,160 +690,160 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="51">
-      <c r="A2" s="20">
+      <c r="A2" s="15">
         <v>1001</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="15">
         <v>5</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1">
-      <c r="A3" s="20">
+      <c r="A3" s="15">
         <v>1002</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="38.25">
-      <c r="A4" s="20">
+      <c r="A4" s="15">
         <v>1003</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>5</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:8" s="11" customFormat="1">
-      <c r="A5" s="20">
+      <c r="A5" s="15">
         <v>1004</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="38.25">
-      <c r="A6" s="20">
+      <c r="A6" s="15">
         <v>1005</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>5</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="20">
+      <c r="A7" s="15">
         <v>1006</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>8</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20">
+      <c r="A8" s="15">
         <v>1007</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">

--- a/ProjectExecution/Sprint001-2020062920200711/SprintBacklog001.xlsx
+++ b/ProjectExecution/Sprint001-2020062920200711/SprintBacklog001.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Anodiam</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Deploy the SEED APP and a basic MySQL database on one Kubernetes cluster on GCP. This will be a REST API web service capable of doing a complete crud operation</t>
+  </si>
+  <si>
+    <t>Database Entity Relationship Design for task # 1001</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,7 +307,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -316,9 +318,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,6 +331,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,31 +560,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
@@ -656,301 +658,309 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" ht="38.25">
+      <c r="A2" s="13">
         <v>1001</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1">
-      <c r="A3" s="15">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1">
+      <c r="A3" s="13">
         <v>1002</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="38.25">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>1003</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>5</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1">
-      <c r="A5" s="15">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1">
+      <c r="A5" s="13">
         <v>1004</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="38.25">
-      <c r="A6" s="15">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.5">
+      <c r="A6" s="13">
         <v>1005</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>1006</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>8</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>1007</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>5</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="13">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F26">
